--- a/data/trans_orig/IP09B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E24D5797-D361-4077-B1BE-B1DD8B20FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E532DCAA-DC02-4E9A-8DF2-7DD3508AA1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18BC1367-482A-482E-B820-AB151196CB0B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A8CE9F7-510C-448B-AD6D-BCB0C8B1D325}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="286">
   <si>
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,7%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>86,46%</t>
   </si>
   <si>
-    <t>65,81%</t>
+    <t>65,69%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,19 +86,19 @@
     <t>66,84%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,19%</t>
+    <t>34,31%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>78,45%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,103 +197,103 @@
     <t>89,33%</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>60,98%</t>
   </si>
   <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -305,7 +305,7 @@
     <t>60,57%</t>
   </si>
   <si>
-    <t>35,35%</t>
+    <t>34,1%</t>
   </si>
   <si>
     <t>83,4%</t>
@@ -314,19 +314,19 @@
     <t>52,59%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>56,38%</t>
   </si>
   <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
   </si>
   <si>
     <t>39,43%</t>
@@ -335,190 +335,181 @@
     <t>16,6%</t>
   </si>
   <si>
-    <t>64,65%</t>
+    <t>65,9%</t>
   </si>
   <si>
     <t>47,41%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>43,62%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>61,57%</t>
   </si>
   <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>38,43%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>66,55%</t>
   </si>
   <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
   </si>
   <si>
     <t>23,23%</t>
@@ -530,19 +521,16 @@
     <t>55,85%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>76,77%</t>
@@ -554,388 +542,361 @@
     <t>44,15%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
   </si>
   <si>
     <t>53,71%</t>
   </si>
   <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>63,16%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>52,2%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>46,29%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
+    <t>36,84%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>59,09%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>55,69%</t>
   </si>
   <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>72,14%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>44,31%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>27,86%</t>
   </si>
   <si>
     <t>55,26%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
     <t>39,44%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
     <t>25,61%</t>
   </si>
   <si>
-    <t>69,42%</t>
+    <t>68,53%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
   </si>
   <si>
     <t>71,0%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>75,71%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>67,64%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>70,22%</t>
   </si>
   <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>68,69%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>38,12%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>31,31%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D9977-5D9B-4379-BDA0-41F878437FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BC3CC7-EEB2-485C-B16F-691D92CA4296}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96C4C0C-34F0-44EE-8B84-0AF8C99D3C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E43F9A-97B5-4969-B4F3-C3E0898CB00E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2407,13 +2368,13 @@
         <v>75875</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2389,13 @@
         <v>25421</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -2443,13 +2404,13 @@
         <v>20853</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -2458,13 +2419,13 @@
         <v>46274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2493,13 @@
         <v>12538</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2547,13 +2508,13 @@
         <v>11168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2562,13 +2523,13 @@
         <v>23707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2544,13 @@
         <v>6302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2598,13 +2559,13 @@
         <v>4072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2613,13 +2574,13 @@
         <v>10374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2648,13 @@
         <v>62007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -2702,13 +2663,13 @@
         <v>51274</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -2717,13 +2678,13 @@
         <v>113281</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2699,13 @@
         <v>36277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -2753,13 +2714,13 @@
         <v>30968</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -2768,13 +2729,13 @@
         <v>67246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE0108F-D01C-415D-B6E3-F1509018F027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EDA76C-3B9B-451E-9EDD-FFB717599EAC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2934,13 @@
         <v>644</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2988,13 +2949,13 @@
         <v>2485</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3003,13 +2964,13 @@
         <v>3129</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,10 +2985,10 @@
         <v>2129</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -3039,13 +3000,13 @@
         <v>1964</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3054,13 +3015,13 @@
         <v>4093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3089,13 @@
         <v>22521</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3143,13 +3104,13 @@
         <v>14854</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3158,13 +3119,13 @@
         <v>37375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3140,13 @@
         <v>15994</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -3194,13 +3155,13 @@
         <v>16223</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -3209,13 +3170,13 @@
         <v>32217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3244,13 @@
         <v>5263</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3298,13 +3259,13 @@
         <v>6853</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3313,13 +3274,13 @@
         <v>12117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3295,13 @@
         <v>4896</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3349,13 +3310,13 @@
         <v>4744</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -3364,13 +3325,13 @@
         <v>9639</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3399,13 @@
         <v>28429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3453,13 +3414,13 @@
         <v>24192</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -3468,13 +3429,13 @@
         <v>52621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3450,13 @@
         <v>23018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -3504,13 +3465,13 @@
         <v>22931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -3519,13 +3480,13 @@
         <v>45949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABB7335-35E2-4D68-906F-A24C379D6923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ECD046-A87A-40E0-B368-F8ED762BAA74}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,10 +3685,10 @@
         <v>8592</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3739,10 +3700,10 @@
         <v>4553</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3754,13 +3715,13 @@
         <v>13147</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3736,13 @@
         <v>1195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3790,13 +3751,13 @@
         <v>1568</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3805,13 +3766,13 @@
         <v>2762</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3840,13 @@
         <v>41780</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -3894,13 +3855,13 @@
         <v>31462</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -3909,13 +3870,13 @@
         <v>73241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3891,13 @@
         <v>17062</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3945,13 +3906,13 @@
         <v>6436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -3960,13 +3921,13 @@
         <v>23498</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +3995,13 @@
         <v>14152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4049,13 +4010,13 @@
         <v>12375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4064,13 +4025,13 @@
         <v>26528</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4046,13 @@
         <v>6771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4100,13 +4061,13 @@
         <v>4482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -4115,13 +4076,13 @@
         <v>11252</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4150,13 @@
         <v>64524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -4204,13 +4165,13 @@
         <v>48391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -4219,13 +4180,13 @@
         <v>112916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4201,13 @@
         <v>25027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4255,13 +4216,13 @@
         <v>12485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -4270,13 +4231,13 @@
         <v>37512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP09B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E532DCAA-DC02-4E9A-8DF2-7DD3508AA1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{388FADE8-D854-4CCB-A63B-11CC1C635BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A8CE9F7-510C-448B-AD6D-BCB0C8B1D325}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67DCBEFE-F600-45DC-9034-9E6097516093}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="286">
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,7%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades de ocio en 2007 (Tasa respuesta: 9,7%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
     <t>86,46%</t>
   </si>
   <si>
-    <t>65,69%</t>
+    <t>58,34%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
     <t>13,54%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>41,66%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,766 +137,799 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>74,62%</t>
+    <t>72,12%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
     <t>75,86%</t>
   </si>
   <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades de ocio en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
     <t>62,12%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
   </si>
   <si>
     <t>37,88%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>66,55%</t>
   </si>
   <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>33,45%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades de ocio en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
     <t>56,67%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>53,71%</t>
   </si>
   <si>
-    <t>63,16%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
   </si>
   <si>
     <t>46,29%</t>
   </si>
   <si>
-    <t>36,84%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>55,69%</t>
   </si>
   <si>
-    <t>72,14%</t>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>44,31%</t>
   </si>
   <si>
-    <t>27,86%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
   </si>
   <si>
     <t>55,26%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
   <si>
     <t>44,74%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades de ocio en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>70,22%</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BC3CC7-EEB2-485C-B16F-691D92CA4296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3942B70A-FDA1-4201-812A-53C69188A56D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1426,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>8963</v>
+        <v>5226</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1441,10 +1474,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>5226</v>
+        <v>8963</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1477,10 +1510,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1404</v>
+        <v>2592</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1492,10 +1525,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>2592</v>
+        <v>1404</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1528,25 +1561,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7818</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>10367</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7818</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1581,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>41397</v>
+        <v>23684</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1596,10 +1629,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>23684</v>
+        <v>41397</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1632,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>11370</v>
+        <v>6876</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1647,10 +1680,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>6876</v>
+        <v>11370</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1683,25 +1716,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30560</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>79</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>52767</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30560</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1736,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>16969</v>
+        <v>10486</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1751,10 +1784,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>10486</v>
+        <v>16969</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1787,10 +1820,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>2027</v>
+        <v>6710</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1802,10 +1835,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>6710</v>
+        <v>2027</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1838,25 +1871,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17196</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>28</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>18996</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17196</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1891,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>67331</v>
+        <v>39396</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1906,10 +1939,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>39396</v>
+        <v>67331</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1927,7 +1960,7 @@
         <v>106727</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>75</v>
@@ -1942,10 +1975,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>14800</v>
+        <v>16178</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1957,10 +1990,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>16178</v>
+        <v>14800</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1978,7 +2011,7 @@
         <v>30978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>83</v>
@@ -1993,25 +2026,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>82</v>
+      </c>
+      <c r="D15" s="7">
+        <v>55574</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>122</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>82131</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>55574</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E43F9A-97B5-4969-B4F3-C3E0898CB00E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67A12B-B65A-46EF-9885-A423E57729FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2180,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>6996</v>
+        <v>6703</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>87</v>
@@ -2195,7 +2228,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>6703</v>
+        <v>6996</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>90</v>
@@ -2228,10 +2261,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>4555</v>
+        <v>6043</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>96</v>
@@ -2243,10 +2276,10 @@
         <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>6043</v>
+        <v>4555</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2279,25 +2312,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12746</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>11551</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12746</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>42472</v>
+        <v>33403</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>105</v>
@@ -2347,10 +2380,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>33403</v>
+        <v>42472</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>108</v>
@@ -2368,13 +2401,13 @@
         <v>75875</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,34 +2416,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20853</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="7">
         <v>36</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>25421</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="7">
-        <v>32</v>
-      </c>
-      <c r="I8" s="7">
-        <v>20853</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -2419,13 +2452,13 @@
         <v>46274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,25 +2467,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7">
+        <v>54256</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>97</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>67893</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>79</v>
-      </c>
-      <c r="I9" s="7">
-        <v>54256</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2490,31 +2523,31 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>12538</v>
+        <v>11168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>11168</v>
+        <v>12538</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2523,13 +2556,13 @@
         <v>23707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,34 +2571,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4072</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>6302</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4072</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2574,13 +2607,13 @@
         <v>10374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,25 +2622,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15240</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>26</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>18840</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>15240</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2642,34 +2675,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>74</v>
+      </c>
+      <c r="D13" s="7">
+        <v>51274</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
         <v>88</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>62007</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="7">
-        <v>74</v>
-      </c>
-      <c r="I13" s="7">
-        <v>51274</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -2678,13 +2711,13 @@
         <v>113281</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,34 +2726,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7">
+        <v>30968</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
         <v>51</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>36277</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="7">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30968</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -2729,13 +2762,13 @@
         <v>67246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,25 +2777,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7">
+        <v>82242</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>139</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>98284</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>121</v>
-      </c>
-      <c r="I15" s="7">
-        <v>82242</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2810,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EDA76C-3B9B-451E-9EDD-FFB717599EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5269D4F-89C7-49E4-804F-EB335B84998D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2928,34 +2961,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2485</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>644</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2485</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2964,13 +2997,13 @@
         <v>3129</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,31 +3015,31 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2129</v>
+        <v>1964</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1964</v>
+        <v>2129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3015,13 +3048,13 @@
         <v>4093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,25 +3063,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2773</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4449</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3083,34 +3116,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14854</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="7">
         <v>32</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>22521</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="7">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14854</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3119,13 +3152,13 @@
         <v>37375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,34 +3167,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16223</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="7">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>15994</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="7">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7">
-        <v>16223</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -3170,13 +3203,13 @@
         <v>32217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,25 +3218,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31077</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>55</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>38515</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>47</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31077</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3238,34 +3271,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6853</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5263</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6853</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3274,13 +3307,13 @@
         <v>12117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,34 +3322,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4744</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>4896</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4744</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -3325,13 +3358,13 @@
         <v>9639</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,25 +3373,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11597</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>10159</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11597</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3393,34 +3426,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24192</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="7">
         <v>41</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>28429</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24192</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -3429,13 +3462,13 @@
         <v>52621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,34 +3477,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
+        <v>22931</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="7">
         <v>33</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>23018</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="7">
-        <v>36</v>
-      </c>
-      <c r="I14" s="7">
-        <v>22931</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -3480,13 +3513,13 @@
         <v>45949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,25 +3528,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>72</v>
+      </c>
+      <c r="D15" s="7">
+        <v>47123</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>74</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>51447</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>72</v>
-      </c>
-      <c r="I15" s="7">
-        <v>47123</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3561,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ECD046-A87A-40E0-B368-F8ED762BAA74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B6F04-103A-4337-8D32-5B26B37407C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3578,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3679,49 +3712,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7850</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
-        <v>8592</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
       <c r="I4" s="7">
-        <v>4553</v>
+        <v>9562</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>13147</v>
+        <v>17412</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,46 +3766,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1195</v>
+        <v>1532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1568</v>
+        <v>1346</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>2762</v>
+        <v>2878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,25 +3814,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9382</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
-        <v>9787</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
       <c r="I6" s="7">
-        <v>6121</v>
+        <v>10908</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3847,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="7">
-        <v>15909</v>
+        <v>20290</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3834,49 +3867,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7">
+        <v>31468</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="7">
         <v>52</v>
       </c>
-      <c r="D7" s="7">
-        <v>41780</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="7">
-        <v>47</v>
-      </c>
       <c r="I7" s="7">
-        <v>31462</v>
+        <v>48417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
       </c>
       <c r="N7" s="7">
-        <v>73241</v>
+        <v>79885</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,49 +3918,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6105</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="7">
         <v>27</v>
       </c>
-      <c r="D8" s="7">
-        <v>17062</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
       <c r="I8" s="7">
-        <v>6436</v>
+        <v>17400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
       </c>
       <c r="N8" s="7">
-        <v>23498</v>
+        <v>23505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,25 +3969,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7">
+        <v>37573</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>79</v>
       </c>
-      <c r="D9" s="7">
-        <v>58842</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>56</v>
-      </c>
       <c r="I9" s="7">
-        <v>37898</v>
+        <v>65817</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3969,7 +4002,7 @@
         <v>135</v>
       </c>
       <c r="N9" s="7">
-        <v>96739</v>
+        <v>103390</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3989,49 +4022,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12222</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
-        <v>14152</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
       <c r="I10" s="7">
-        <v>12375</v>
+        <v>15468</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>26528</v>
+        <v>27691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,49 +4073,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4371</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="7">
         <v>11</v>
       </c>
-      <c r="D11" s="7">
-        <v>6771</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
       <c r="I11" s="7">
-        <v>4482</v>
+        <v>6836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>11252</v>
+        <v>11206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4127,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>20923</v>
+        <v>16593</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4109,7 +4142,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>16857</v>
+        <v>22304</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4124,7 +4157,7 @@
         <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>37780</v>
+        <v>38897</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4144,49 +4177,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>71</v>
+      </c>
+      <c r="D13" s="7">
+        <v>51540</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="7">
         <v>80</v>
       </c>
-      <c r="D13" s="7">
-        <v>64524</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="7">
-        <v>71</v>
-      </c>
       <c r="I13" s="7">
-        <v>48391</v>
+        <v>73448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
       </c>
       <c r="N13" s="7">
-        <v>112916</v>
+        <v>124989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +4228,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7">
+        <v>12008</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="7">
         <v>40</v>
       </c>
-      <c r="D14" s="7">
-        <v>25027</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="7">
-        <v>18</v>
-      </c>
       <c r="I14" s="7">
-        <v>12485</v>
+        <v>25581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>37512</v>
+        <v>37589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,25 +4279,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>89</v>
+      </c>
+      <c r="D15" s="7">
+        <v>63548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>120</v>
       </c>
-      <c r="D15" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>89</v>
-      </c>
       <c r="I15" s="7">
-        <v>60876</v>
+        <v>99029</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4279,7 +4312,7 @@
         <v>209</v>
       </c>
       <c r="N15" s="7">
-        <v>150428</v>
+        <v>162578</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
